--- a/data/trans_bre/P1435_2011_2023-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1435_2011_2023-Clase-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>3.681588072649577</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>7.464997720221646</v>
+        <v>7.464997720221647</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>15.52961520033175</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>3.839905622689416</v>
+        <v>3.839905622689417</v>
       </c>
     </row>
     <row r="5">
@@ -609,14 +609,14 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.677651998653634</v>
+        <v>1.681441552816776</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.871874200783552</v>
+        <v>4.698746760413319</v>
       </c>
       <c r="E5" s="6" t="inlineStr"/>
       <c r="F5" s="6" t="n">
-        <v>1.384421170975879</v>
+        <v>1.524353348369198</v>
       </c>
     </row>
     <row r="6">
@@ -627,14 +627,14 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.790293018304064</v>
+        <v>7.32131367738153</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.26304673591169</v>
+        <v>10.07871880616426</v>
       </c>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="n">
-        <v>8.437699147008658</v>
+        <v>8.584698092746363</v>
       </c>
     </row>
     <row r="7">
@@ -652,7 +652,7 @@
         <v>2.87893951193722</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>6.676123239800058</v>
+        <v>6.676123239800057</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>4.220876409063999</v>
@@ -669,16 +669,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9289188111694747</v>
+        <v>0.8439302280589062</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.178565974988119</v>
+        <v>4.143017776031441</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1224377899700499</v>
+        <v>0.2735687111101472</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>1.302217742782644</v>
+        <v>1.269864399834433</v>
       </c>
     </row>
     <row r="9">
@@ -689,16 +689,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.071285019695198</v>
+        <v>5.601926308856047</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.374506952178958</v>
+        <v>9.323343513540818</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>22.62992701523285</v>
+        <v>20.39210927932078</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>8.211679299520078</v>
+        <v>7.424844386338854</v>
       </c>
     </row>
     <row r="10">
@@ -716,13 +716,13 @@
         <v>1.220975996879672</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>7.683520049095563</v>
+        <v>7.68352004909556</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>1.849739639081124</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7.325464181604715</v>
+        <v>7.325464181604712</v>
       </c>
     </row>
     <row r="11">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2166444483053439</v>
+        <v>-0.2244791327487723</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.641230251299566</v>
+        <v>4.777002171446863</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.7231362623042867</v>
+        <v>-0.624948647621121</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>2.154226794029722</v>
+        <v>2.391949409147391</v>
       </c>
     </row>
     <row r="12">
@@ -753,16 +753,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.446754969927772</v>
+        <v>3.487971092869588</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.27979473446439</v>
+        <v>11.69665733841965</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>11.14287872937728</v>
+        <v>14.42844598250309</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>23.59603544612363</v>
+        <v>28.95644633011844</v>
       </c>
     </row>
     <row r="13">
@@ -786,7 +786,7 @@
         <v>49.43846645724993</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>5.394239825526065</v>
+        <v>5.394239825526067</v>
       </c>
     </row>
     <row r="14">
@@ -797,14 +797,14 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.805779471473839</v>
+        <v>2.86873150119351</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.817961132630424</v>
+        <v>5.874617371241101</v>
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>2.81305751450871</v>
+        <v>3.047892698802923</v>
       </c>
     </row>
     <row r="15">
@@ -815,14 +815,14 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.744276530495069</v>
+        <v>5.828663676673929</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.267341133643182</v>
+        <v>9.442700451396284</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>9.867552515656067</v>
+        <v>10.4896498955536</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>3.426762059920635</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>7.57910224403347</v>
+        <v>7.579102244033471</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>8.74561385502105</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>3.186141455264053</v>
+        <v>3.186141455264055</v>
       </c>
     </row>
     <row r="17">
@@ -857,16 +857,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.970723376866418</v>
+        <v>2.127357402981442</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.343008522843003</v>
+        <v>5.478938066348564</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>1.163847825696405</v>
+        <v>1.185839045543704</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>1.366170716652666</v>
+        <v>1.411870900741638</v>
       </c>
     </row>
     <row r="18">
@@ -877,14 +877,14 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.999504623045821</v>
+        <v>5.153442014522218</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.626519625160208</v>
+        <v>9.769973247167815</v>
       </c>
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
-        <v>6.557923688757088</v>
+        <v>6.69404008671809</v>
       </c>
     </row>
     <row r="19">
@@ -921,10 +921,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.242359736377685</v>
+        <v>2.250613630533601</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.110204959714717</v>
+        <v>0.3724985261553992</v>
       </c>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="inlineStr"/>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.427593789739915</v>
+        <v>4.593352076095783</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.214973433913137</v>
+        <v>7.992410217611901</v>
       </c>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="inlineStr"/>
@@ -977,16 +977,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.569286464652984</v>
+        <v>2.551565498972405</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.223022496504598</v>
+        <v>6.188606031042652</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>5.077543366202694</v>
+        <v>5.16017595644032</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2.987573326095615</v>
+        <v>2.961111935296968</v>
       </c>
     </row>
     <row r="24">
@@ -997,16 +997,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.894303153738817</v>
+        <v>3.929439557894412</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.047630461979315</v>
+        <v>7.973823651716712</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>20.58414283306613</v>
+        <v>18.79384406216416</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>5.940418167496393</v>
+        <v>5.819139907646181</v>
       </c>
     </row>
     <row r="25">
